--- a/linked_list/record.xlsx
+++ b/linked_list/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\linked_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9BEAA3-D962-4D35-932A-8A8E9B31174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB88821-E9A3-4581-A5EC-3E610F6D506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3372" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t xml:space="preserve">是 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141环形链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次用到Floyd算法的快慢指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -421,6 +433,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linked_list/record.xlsx
+++ b/linked_list/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\linked_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB88821-E9A3-4581-A5EC-3E610F6D506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659DDBB6-E249-4062-A022-542EA45D5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="3372" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>第一次用到Floyd算法的快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种方法，暴力，哈希，双指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,6 +455,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linked_list/record.xlsx
+++ b/linked_list/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\linked_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659DDBB6-E249-4062-A022-542EA45D5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B65B2-3175-4997-AE72-CF939449E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="3372" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>三种方法，暴力，哈希，双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24两两交换列表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启示在于，这种肯定是通过多次迭代的操作不一定一次就能达到最终结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,6 +481,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
